--- a/data/ParticleSizeExp1.xlsx
+++ b/data/ParticleSizeExp1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescaspencer/Desktop/UofUtah/Spring 2022/Biostatistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\OxygenPretreatment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6526D5-50EE-6F4F-9E19-AB70A4DC38FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD3F45C-6987-4E66-ACCC-64CD543ECC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{3B74BB18-FD05-6449-9325-F7CAC4EB127F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3B74BB18-FD05-6449-9325-F7CAC4EB127F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>FF</t>
   </si>
   <si>
-    <t>Tooth number</t>
+    <t>toothNumber</t>
   </si>
 </sst>
 </file>
@@ -480,13 +480,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDC62BE-03AF-A24F-AF46-9004DFBA377E}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>B2&amp;"."&amp;C2&amp;"."&amp;D2&amp;"."&amp;E2</f>
         <v>A.1.CC.1</v>
@@ -539,7 +539,7 @@
         <v>2.8898494316096328</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A64" si="0">B3&amp;"."&amp;C3&amp;"."&amp;D3&amp;"."&amp;E3</f>
         <v>A.1.CC.1</v>
@@ -566,7 +566,7 @@
         <v>2.397409444027645</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>A.1.CC.1</v>
@@ -593,7 +593,7 @@
         <v>3.5358871817015558</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>A.1.CF.2</v>
@@ -620,7 +620,7 @@
         <v>4.7468249912955018</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>A.1.CF.2</v>
@@ -647,7 +647,7 @@
         <v>4.666737961565385</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>A.1.CF.2</v>
@@ -674,7 +674,7 @@
         <v>4.6038835887299312</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>A.1.FF.1</v>
@@ -701,7 +701,7 @@
         <v>2.7234132900712851</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>A.1.FF.1</v>
@@ -728,7 +728,7 @@
         <v>3.231373054309465</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>A.1.FF.1</v>
@@ -755,7 +755,7 @@
         <v>3.3564455962634279</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>A.1.FF.2</v>
@@ -782,7 +782,7 @@
         <v>4.3393700191548508</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>A.1.FF.2</v>
@@ -809,7 +809,7 @@
         <v>4.3908386717276713</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>A.1.FF.2</v>
@@ -836,7 +836,7 @@
         <v>3.9280693294981712</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>A.2.CC.1</v>
@@ -863,7 +863,7 @@
         <v>2.1573945099741345</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>A.2.CC.1</v>
@@ -890,7 +890,7 @@
         <v>2.0412792745291704</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>A.2.CC.1</v>
@@ -917,7 +917,7 @@
         <v>3.6306036164293078</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>A.2.CF.2</v>
@@ -944,7 +944,7 @@
         <v>4.2637535476622999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>A.2.CF.2</v>
@@ -971,7 +971,7 @@
         <v>4.4163962093331159</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>A.2.CF.2</v>
@@ -998,7 +998,7 @@
         <v>4.327222187960003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>A.2.FF.1</v>
@@ -1025,7 +1025,7 @@
         <v>3.1540891533079254</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>A.2.FF.1</v>
@@ -1052,7 +1052,7 @@
         <v>2.9998416516642377</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>A.2.FF.1</v>
@@ -1079,7 +1079,7 @@
         <v>3.1749241064198483</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>A.2.FF.2</v>
@@ -1106,7 +1106,7 @@
         <v>3.8091393515387102</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>A.2.FF.2</v>
@@ -1133,7 +1133,7 @@
         <v>4.1307948613363035</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>A.2.FF.2</v>
@@ -1160,7 +1160,7 @@
         <v>3.9069693978262543</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>A.3.CC.1</v>
@@ -1187,7 +1187,7 @@
         <v>2.6875719469208095</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>A.3.CC.1</v>
@@ -1214,7 +1214,7 @@
         <v>2.4786663747561897</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>A.3.CC.1</v>
@@ -1241,7 +1241,7 @@
         <v>2.5716247096481504</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>A.3.CF.2</v>
@@ -1268,7 +1268,7 @@
         <v>4.2242332868809704</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>A.3.CF.2</v>
@@ -1295,7 +1295,7 @@
         <v>4.1387454985402785</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>A.3.CF.2</v>
@@ -1322,7 +1322,7 @@
         <v>4.0386933166885459</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>A.3.FF.1</v>
@@ -1349,7 +1349,7 @@
         <v>3.3436892991968317</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>A.3.FF.1</v>
@@ -1376,7 +1376,7 @@
         <v>3.2966523880086163</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>A.3.FF.1</v>
@@ -1403,7 +1403,7 @@
         <v>2.9745211145071631</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>A.3.FF.2</v>
@@ -1430,7 +1430,7 @@
         <v>4.0205337302138897</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>A.3.FF.2</v>
@@ -1457,7 +1457,7 @@
         <v>3.8667019041572317</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>A.3.FF.2</v>
@@ -1484,7 +1484,7 @@
         <v>3.9436491582899755</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>A.4.CC.1</v>
@@ -1511,7 +1511,7 @@
         <v>1.2047957227111761</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>A.4.CC.1</v>
@@ -1538,7 +1538,7 @@
         <v>3.0286862829302401</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>A.4.CC.1</v>
@@ -1565,7 +1565,7 @@
         <v>3.0487837874064643</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>A.4.CF.2</v>
@@ -1592,7 +1592,7 @@
         <v>4.1952566155137099</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>A.4.CF.2</v>
@@ -1619,7 +1619,7 @@
         <v>4.0969089642920249</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>A.4.CF.2</v>
@@ -1646,7 +1646,7 @@
         <v>4.1106700292631926</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>A.4.FF.1</v>
@@ -1673,7 +1673,7 @@
         <v>2.7343963434674947</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>A.4.FF.1</v>
@@ -1700,7 +1700,7 @@
         <v>2.1743818683203875</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>A.4.FF.1</v>
@@ -1727,7 +1727,7 @@
         <v>2.599862109399194</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>A.4.FF.2</v>
@@ -1754,7 +1754,7 @@
         <v>3.3897745413155498</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>A.4.FF.2</v>
@@ -1781,7 +1781,7 @@
         <v>3.2903659990238059</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>A.4.FF.2</v>
@@ -1808,7 +1808,7 @@
         <v>3.6040137199439637</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>A.5.CC.1</v>
@@ -1835,7 +1835,7 @@
         <v>3.1893765295090062</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>A.5.CC.1</v>
@@ -1862,7 +1862,7 @@
         <v>2.5403232824663875</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>A.5.CC.1</v>
@@ -1889,7 +1889,7 @@
         <v>1.9361323905938599</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>A.5.CF.2</v>
@@ -1916,7 +1916,7 @@
         <v>3.6268070666272307</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>A.5.CF.2</v>
@@ -1943,7 +1943,7 @@
         <v>4.0868598466571999</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>A.5.CF.2</v>
@@ -1970,7 +1970,7 @@
         <v>4.0176789774797594</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>A.5.FF.1</v>
@@ -1997,7 +1997,7 @@
         <v>3.0022279531465506</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>A.5.FF.1</v>
@@ -2024,7 +2024,7 @@
         <v>2.8188796894872503</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>A.5.FF.1</v>
@@ -2051,7 +2051,7 @@
         <v>2.7139959232880808</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>A.5.FF.2</v>
@@ -2078,7 +2078,7 @@
         <v>4.0129211103096774</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>A.5.FF.2</v>
@@ -2105,7 +2105,7 @@
         <v>3.8864348862421765</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>A.5.FF.2</v>
@@ -2132,7 +2132,7 @@
         <v>3.8274926291851958</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>B.1.CC.1</v>
@@ -2159,7 +2159,7 @@
         <v>1.7873655303448839</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>B.1.CC.1</v>
@@ -2186,7 +2186,7 @@
         <v>2.1342707490534636</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>B.1.CC.1</v>
@@ -2213,7 +2213,7 @@
         <v>2.4937442052299441</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" ref="A65:A91" si="1">B65&amp;"."&amp;C65&amp;"."&amp;D65&amp;"."&amp;E65</f>
         <v>B.1.CF.1</v>
@@ -2240,7 +2240,7 @@
         <v>3.3567020092195983</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="1"/>
         <v>B.1.CF.1</v>
@@ -2267,7 +2267,7 @@
         <v>3.3360413696958893</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
         <v>B.1.CF.1</v>
@@ -2294,7 +2294,7 @@
         <v>3.241080116221609</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
         <v>B.2.CC.1</v>
@@ -2321,7 +2321,7 @@
         <v>1.7058139006029083</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>B.2.CC.1</v>
@@ -2348,7 +2348,7 @@
         <v>2.9380744131041103</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>B.2.CC.1</v>
@@ -2375,7 +2375,7 @@
         <v>2.2727913925331631</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>B.2.CF.1</v>
@@ -2402,7 +2402,7 @@
         <v>3.0125920373465696</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>B.2.CF.1</v>
@@ -2429,7 +2429,7 @@
         <v>3.0713143890025472</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>B.2.CF.1</v>
@@ -2456,7 +2456,7 @@
         <v>3.0620617002011841</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>B.3.CC.1</v>
@@ -2483,7 +2483,7 @@
         <v>2.3068547132390669</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>B.3.CC.1</v>
@@ -2510,7 +2510,7 @@
         <v>2.2878031658717952</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>B.3.CC.1</v>
@@ -2537,7 +2537,7 @@
         <v>2.8370226025513916</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>B.3.CF.1</v>
@@ -2564,7 +2564,7 @@
         <v>3.0643343693863438</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>B.3.CF.1</v>
@@ -2591,7 +2591,7 @@
         <v>3.2013157577806641</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>B.3.CF.1</v>
@@ -2618,7 +2618,7 @@
         <v>2.911216430342991</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>B.4.CC.1</v>
@@ -2645,7 +2645,7 @@
         <v>1.5854867789836156</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>B.4.CC.1</v>
@@ -2672,7 +2672,7 @@
         <v>2.0158331904220259</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>B.4.CC.1</v>
@@ -2699,7 +2699,7 @@
         <v>1.5357119924314231</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>B.4.CF.1</v>
@@ -2726,7 +2726,7 @@
         <v>3.3577276610442777</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>B.4.CF.1</v>
@@ -2753,7 +2753,7 @@
         <v>3.0732854412686774</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>B.4.CF.1</v>
@@ -2780,7 +2780,7 @@
         <v>3.3282867916222294</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>B.5.CC.1</v>
@@ -2807,7 +2807,7 @@
         <v>1.8806924763257535</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>B.5.CC.1</v>
@@ -2834,7 +2834,7 @@
         <v>1.607312960616377</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>B.5.CC.1</v>
@@ -2861,7 +2861,7 @@
         <v>3.1683088743050742</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>B.5.CF.1</v>
@@ -2888,7 +2888,7 @@
         <v>3.4069090905540791</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>B.5.CF.1</v>
@@ -2915,7 +2915,7 @@
         <v>3.2807245732802177</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>B.5.CF.1</v>
